--- a/cost_budget_template.xlsx
+++ b/cost_budget_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="17680"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+  <si>
+    <t>井号</t>
+  </si>
   <si>
     <t>任务名称</t>
   </si>
@@ -38,25 +41,28 @@
     <t>预算</t>
   </si>
   <si>
-    <t>钻机动迁</t>
+    <t>设备动迁</t>
+  </si>
+  <si>
+    <t>项目直接成本-人工费</t>
+  </si>
+  <si>
+    <t>项目间接成本-分摊费</t>
+  </si>
+  <si>
+    <t>项目直接成本-服务费</t>
+  </si>
+  <si>
+    <t>项目直接成本-材料费</t>
   </si>
   <si>
     <t>项目直接成本-设备费</t>
   </si>
   <si>
-    <t>项目直接成本-人工费</t>
+    <t>NNKB-009</t>
   </si>
   <si>
-    <t>项目直接成本-材料费</t>
-  </si>
-  <si>
-    <t>项目间接成本</t>
-  </si>
-  <si>
-    <t>项目直接成本-服务费</t>
-  </si>
-  <si>
-    <t>NNKB-009</t>
+    <t>钻井阶段</t>
   </si>
 </sst>
 </file>
@@ -69,13 +75,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -229,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +254,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -423,12 +445,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,28 +569,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,123 +590,138 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1062,19 +1105,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="19.4166666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1084,123 +1128,155 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>50000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>208000</v>
+      <c r="D7">
+        <v>180000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>50000</v>
+      <c r="D8">
+        <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>210000</v>
+      <c r="D9">
+        <v>3160000</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1800000</v>
+      <c r="D10">
+        <v>640000</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>28000</v>
+      <c r="D11">
+        <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>3100000</v>
-      </c>
-    </row>
-    <row r="13" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>